--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H2">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I2">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J2">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N2">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O2">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P2">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q2">
-        <v>320.075967092094</v>
+        <v>206.377190688396</v>
       </c>
       <c r="R2">
-        <v>1280.303868368376</v>
+        <v>825.5087627535841</v>
       </c>
       <c r="S2">
-        <v>0.03800542478411448</v>
+        <v>0.02176270925255896</v>
       </c>
       <c r="T2">
-        <v>0.01969169699802744</v>
+        <v>0.01119515886190555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H3">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I3">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J3">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.704871</v>
       </c>
       <c r="O3">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P3">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q3">
-        <v>3.536983342214</v>
+        <v>3.311320081315167</v>
       </c>
       <c r="R3">
-        <v>21.221900053284</v>
+        <v>19.867920487891</v>
       </c>
       <c r="S3">
-        <v>0.0004199770310668237</v>
+        <v>0.000349182465036209</v>
       </c>
       <c r="T3">
-        <v>0.0003264031577942962</v>
+        <v>0.000269439327785842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H4">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I4">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J4">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N4">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O4">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P4">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q4">
-        <v>331.742013732116</v>
+        <v>383.4328959211683</v>
       </c>
       <c r="R4">
-        <v>1990.452082392696</v>
+        <v>2300.59737552701</v>
       </c>
       <c r="S4">
-        <v>0.03939063674530417</v>
+        <v>0.04043343454751406</v>
       </c>
       <c r="T4">
-        <v>0.03061412236887205</v>
+        <v>0.03119961199490737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H5">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I5">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J5">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N5">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O5">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P5">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q5">
-        <v>35.939234357829</v>
+        <v>96.12356721911125</v>
       </c>
       <c r="R5">
-        <v>143.756937431316</v>
+        <v>384.494268876445</v>
       </c>
       <c r="S5">
-        <v>0.004267380274108904</v>
+        <v>0.01013633938290617</v>
       </c>
       <c r="T5">
-        <v>0.002211051706708868</v>
+        <v>0.005214329169815153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H6">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I6">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J6">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N6">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O6">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P6">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q6">
-        <v>188.4289442451</v>
+        <v>159.6772118401997</v>
       </c>
       <c r="R6">
-        <v>1130.5736654706</v>
+        <v>958.063271041198</v>
       </c>
       <c r="S6">
-        <v>0.02237381998004478</v>
+        <v>0.01683814342053121</v>
       </c>
       <c r="T6">
-        <v>0.01738877355948961</v>
+        <v>0.0129928003226596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H7">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I7">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J7">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N7">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O7">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P7">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q7">
-        <v>445.539111778216</v>
+        <v>226.7178694462045</v>
       </c>
       <c r="R7">
-        <v>2673.234670669296</v>
+        <v>1360.307216677227</v>
       </c>
       <c r="S7">
-        <v>0.05290276353737029</v>
+        <v>0.0239076569395069</v>
       </c>
       <c r="T7">
-        <v>0.04111565108877373</v>
+        <v>0.01844784220206271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.484879</v>
       </c>
       <c r="I8">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J8">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N8">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O8">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P8">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q8">
-        <v>42.59653879682101</v>
+        <v>29.336938691736</v>
       </c>
       <c r="R8">
-        <v>255.579232780926</v>
+        <v>176.021632150416</v>
       </c>
       <c r="S8">
-        <v>0.005057860376128759</v>
+        <v>0.003093613518910529</v>
       </c>
       <c r="T8">
-        <v>0.003930933066166644</v>
+        <v>0.002387122007624326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.484879</v>
       </c>
       <c r="I9">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J9">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.704871</v>
       </c>
       <c r="O9">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P9">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q9">
         <v>0.4707109050676667</v>
@@ -1013,10 +1013,10 @@
         <v>4.236398145609001</v>
       </c>
       <c r="S9">
-        <v>5.589163116537386E-05</v>
+        <v>4.963699978096708E-05</v>
       </c>
       <c r="T9">
-        <v>6.515786658728986E-05</v>
+        <v>5.745202520222302E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.484879</v>
       </c>
       <c r="I10">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J10">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N10">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O10">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P10">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q10">
-        <v>44.14908650236067</v>
+        <v>54.50576840644334</v>
       </c>
       <c r="R10">
-        <v>397.3417785212461</v>
+        <v>490.55191565799</v>
       </c>
       <c r="S10">
-        <v>0.00524220797205326</v>
+        <v>0.005747695210212183</v>
       </c>
       <c r="T10">
-        <v>0.00611131005740775</v>
+        <v>0.006652632744302689</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.484879</v>
       </c>
       <c r="I11">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J11">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N11">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O11">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P11">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q11">
-        <v>4.7828864021235</v>
+        <v>13.6641611843425</v>
       </c>
       <c r="R11">
-        <v>28.697318412741</v>
+        <v>81.98496710605501</v>
       </c>
       <c r="S11">
-        <v>0.0005679140207192348</v>
+        <v>0.001440901322685113</v>
       </c>
       <c r="T11">
-        <v>0.000441378732659594</v>
+        <v>0.001111841294063116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.484879</v>
       </c>
       <c r="I12">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J12">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N12">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O12">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P12">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q12">
-        <v>25.07661198965</v>
+        <v>22.69844142464467</v>
       </c>
       <c r="R12">
-        <v>225.6895079068501</v>
+        <v>204.285972821802</v>
       </c>
       <c r="S12">
-        <v>0.002977565918089847</v>
+        <v>0.002393576439155188</v>
       </c>
       <c r="T12">
-        <v>0.003471214541434859</v>
+        <v>0.002770429609215029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.484879</v>
       </c>
       <c r="I13">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J13">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N13">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O13">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P13">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q13">
-        <v>59.29349908017734</v>
+        <v>32.228407674697</v>
       </c>
       <c r="R13">
-        <v>533.641491721596</v>
+        <v>290.055669072273</v>
       </c>
       <c r="S13">
-        <v>0.007040436806148145</v>
+        <v>0.003398522208572766</v>
       </c>
       <c r="T13">
-        <v>0.008207666023807974</v>
+        <v>0.003933597607406263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H14">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I14">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J14">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N14">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O14">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P14">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q14">
-        <v>553.1294475835651</v>
+        <v>379.5502798911201</v>
       </c>
       <c r="R14">
-        <v>3318.776685501391</v>
+        <v>2277.30167934672</v>
       </c>
       <c r="S14">
-        <v>0.06567790705125771</v>
+        <v>0.04002400827555339</v>
       </c>
       <c r="T14">
-        <v>0.05104440165309852</v>
+        <v>0.0308836867966489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H15">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I15">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J15">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.704871</v>
       </c>
       <c r="O15">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P15">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q15">
-        <v>6.112329082265001</v>
+        <v>6.089880666947779</v>
       </c>
       <c r="R15">
-        <v>55.01096174038501</v>
+        <v>54.80892600253001</v>
       </c>
       <c r="S15">
-        <v>0.0007257704016401171</v>
+        <v>0.0006421848359088856</v>
       </c>
       <c r="T15">
-        <v>0.000846095381670799</v>
+        <v>0.0007432926957698555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H16">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I16">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J16">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N16">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O16">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P16">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q16">
-        <v>573.2897676229101</v>
+        <v>705.1751333609222</v>
       </c>
       <c r="R16">
-        <v>5159.607908606191</v>
+        <v>6346.576200248301</v>
       </c>
       <c r="S16">
-        <v>0.06807171853869923</v>
+        <v>0.07436151906263513</v>
       </c>
       <c r="T16">
-        <v>0.07935728234140257</v>
+        <v>0.08606926055390339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H17">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I17">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J17">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N17">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O17">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P17">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q17">
-        <v>62.10728355372751</v>
+        <v>176.7817786473917</v>
       </c>
       <c r="R17">
-        <v>372.643701322365</v>
+        <v>1060.69067188435</v>
       </c>
       <c r="S17">
-        <v>0.007374542097275644</v>
+        <v>0.01864183942527977</v>
       </c>
       <c r="T17">
-        <v>0.005731441602230731</v>
+        <v>0.01438458452636829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H18">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I18">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J18">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N18">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O18">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P18">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q18">
-        <v>325.6276901572501</v>
+        <v>293.6638988253711</v>
       </c>
       <c r="R18">
-        <v>2930.649211415251</v>
+        <v>2642.97508942834</v>
       </c>
       <c r="S18">
-        <v>0.0386646295200774</v>
+        <v>0.03096719180444192</v>
       </c>
       <c r="T18">
-        <v>0.04507481208522966</v>
+        <v>0.03584277639344882</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H19">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I19">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J19">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N19">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O19">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P19">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q19">
-        <v>769.9447259776601</v>
+        <v>416.9590181821567</v>
       </c>
       <c r="R19">
-        <v>6929.502533798941</v>
+        <v>3752.63116363941</v>
       </c>
       <c r="S19">
-        <v>0.09142228526845364</v>
+        <v>0.04396880223372929</v>
       </c>
       <c r="T19">
-        <v>0.1065791236079987</v>
+        <v>0.05089140651511309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H20">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I20">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J20">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N20">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O20">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P20">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q20">
-        <v>32.90727427339651</v>
+        <v>48.300243943848</v>
       </c>
       <c r="R20">
-        <v>131.629097093586</v>
+        <v>193.200975775392</v>
       </c>
       <c r="S20">
-        <v>0.003907369080565649</v>
+        <v>0.005093315604652906</v>
       </c>
       <c r="T20">
-        <v>0.002024519616108076</v>
+        <v>0.002620100129362666</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H21">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I21">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J21">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.704871</v>
       </c>
       <c r="O21">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P21">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q21">
-        <v>0.3636401757998334</v>
+        <v>0.7749769592763334</v>
       </c>
       <c r="R21">
-        <v>2.181841054799</v>
+        <v>4.649861755658</v>
       </c>
       <c r="S21">
-        <v>4.317818508962368E-05</v>
+        <v>8.172220091719358E-05</v>
       </c>
       <c r="T21">
-        <v>3.355777797009406E-05</v>
+        <v>6.305922285652244E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H22">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I22">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J22">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N22">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O22">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P22">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q22">
-        <v>34.10667015418434</v>
+        <v>89.73812632739666</v>
       </c>
       <c r="R22">
-        <v>204.640020925106</v>
+        <v>538.42875796438</v>
       </c>
       <c r="S22">
-        <v>0.004049783865242511</v>
+        <v>0.009462987385467636</v>
       </c>
       <c r="T22">
-        <v>0.003147463180645278</v>
+        <v>0.007301915804168196</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H23">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I23">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J23">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N23">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O23">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P23">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q23">
-        <v>3.69494233801275</v>
+        <v>22.4966321614775</v>
       </c>
       <c r="R23">
-        <v>14.779769352051</v>
+        <v>89.98652864591</v>
       </c>
       <c r="S23">
-        <v>0.0004387328870229704</v>
+        <v>0.002372295423050014</v>
       </c>
       <c r="T23">
-        <v>0.0002273200503191648</v>
+        <v>0.001220354681956407</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H24">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I24">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J24">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N24">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O24">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P24">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q24">
-        <v>19.37253523172501</v>
+        <v>37.37064284298733</v>
       </c>
       <c r="R24">
-        <v>116.23521139035</v>
+        <v>224.223857057924</v>
       </c>
       <c r="S24">
-        <v>0.002300270892925526</v>
+        <v>0.003940776749893444</v>
       </c>
       <c r="T24">
-        <v>0.001787754157235643</v>
+        <v>0.003040817752218056</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H25">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I25">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J25">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N25">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O25">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P25">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q25">
-        <v>45.80624369899267</v>
+        <v>53.06074941787099</v>
       </c>
       <c r="R25">
-        <v>274.8374621939561</v>
+        <v>318.364496507226</v>
       </c>
       <c r="S25">
-        <v>0.005438976769674141</v>
+        <v>0.005595316315975715</v>
       </c>
       <c r="T25">
-        <v>0.00422713401321461</v>
+        <v>0.004317508517414579</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H26">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I26">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J26">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N26">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O26">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P26">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q26">
-        <v>238.629664648583</v>
+        <v>930.5267764848639</v>
       </c>
       <c r="R26">
-        <v>1431.777987891498</v>
+        <v>5583.160658909183</v>
       </c>
       <c r="S26">
-        <v>0.0283345914829361</v>
+        <v>0.09812510588409544</v>
       </c>
       <c r="T26">
-        <v>0.02202144272354304</v>
+        <v>0.07571618055214668</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H27">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I27">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J27">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.704871</v>
       </c>
       <c r="O27">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P27">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q27">
-        <v>2.636965082034111</v>
+        <v>14.93029336671289</v>
       </c>
       <c r="R27">
-        <v>23.732685738307</v>
+        <v>134.372640300416</v>
       </c>
       <c r="S27">
-        <v>0.0003131099750914698</v>
+        <v>0.001574416399948852</v>
       </c>
       <c r="T27">
-        <v>0.0003650202643718669</v>
+        <v>0.00182229810600556</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H28">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I28">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J28">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N28">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O28">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P28">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q28">
-        <v>247.3271773758731</v>
+        <v>1728.846949847751</v>
       </c>
       <c r="R28">
-        <v>2225.944596382858</v>
+        <v>15559.62254862976</v>
       </c>
       <c r="S28">
-        <v>0.0293673233958285</v>
+        <v>0.1823088752502604</v>
       </c>
       <c r="T28">
-        <v>0.03423611191789038</v>
+        <v>0.2110122316353832</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H29">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I29">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J29">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N29">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O29">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P29">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q29">
-        <v>26.7941623997905</v>
+        <v>433.4081341560533</v>
       </c>
       <c r="R29">
-        <v>160.764974398743</v>
+        <v>2600.44880493632</v>
       </c>
       <c r="S29">
-        <v>0.00318150573124907</v>
+        <v>0.04570338020335597</v>
       </c>
       <c r="T29">
-        <v>0.002472643598109338</v>
+        <v>0.03526605506452347</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H30">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I30">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J30">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N30">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O30">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P30">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q30">
-        <v>140.4814494002833</v>
+        <v>719.9629024706276</v>
       </c>
       <c r="R30">
-        <v>1264.33304460255</v>
+        <v>6479.666122235648</v>
       </c>
       <c r="S30">
-        <v>0.01668059369546377</v>
+        <v>0.07592090611774044</v>
       </c>
       <c r="T30">
-        <v>0.01944605795078599</v>
+        <v>0.08787416304166984</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H31">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I31">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J31">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N31">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O31">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P31">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q31">
-        <v>332.1675469651009</v>
+        <v>1022.240139637461</v>
       </c>
       <c r="R31">
-        <v>2989.507922685908</v>
+        <v>9200.161256737152</v>
       </c>
       <c r="S31">
-        <v>0.0394411640355168</v>
+        <v>0.1077963842371279</v>
       </c>
       <c r="T31">
-        <v>0.04598008772851365</v>
+        <v>0.124768229571254</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H32">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I32">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J32">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N32">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O32">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P32">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q32">
-        <v>846.6974720439063</v>
+        <v>225.372567439344</v>
       </c>
       <c r="R32">
-        <v>5080.184832263437</v>
+        <v>1352.235404636064</v>
       </c>
       <c r="S32">
-        <v>0.1005358114856708</v>
+        <v>0.02376579331429458</v>
       </c>
       <c r="T32">
-        <v>0.07813571674855169</v>
+        <v>0.0183383761101428</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H33">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I33">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J33">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.704871</v>
       </c>
       <c r="O33">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P33">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q33">
-        <v>9.35638774045267</v>
+        <v>3.616100722420667</v>
       </c>
       <c r="R33">
-        <v>84.20748966407402</v>
+        <v>32.544906501786</v>
       </c>
       <c r="S33">
-        <v>0.001110965917720625</v>
+        <v>0.0003813219299454019</v>
       </c>
       <c r="T33">
-        <v>0.001295152199721676</v>
+        <v>0.0004413586080153033</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H34">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I34">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J34">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N34">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O34">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P34">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q34">
-        <v>877.5576840385509</v>
+        <v>418.7248402122733</v>
       </c>
       <c r="R34">
-        <v>7898.019156346957</v>
+        <v>3768.52356191046</v>
       </c>
       <c r="S34">
-        <v>0.1042001149210076</v>
+        <v>0.04415501017320655</v>
       </c>
       <c r="T34">
-        <v>0.1214753809262505</v>
+        <v>0.05110693169348624</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H35">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I35">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J35">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N35">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O35">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P35">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q35">
-        <v>95.07011461817102</v>
+        <v>104.970976023745</v>
       </c>
       <c r="R35">
-        <v>570.4206877090261</v>
+        <v>629.8258561424699</v>
       </c>
       <c r="S35">
-        <v>0.01128850792255339</v>
+        <v>0.01106930869415381</v>
       </c>
       <c r="T35">
-        <v>0.008773347969406185</v>
+        <v>0.008541399962044206</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H36">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I36">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J36">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N36">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O36">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P36">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q36">
-        <v>498.4513901549001</v>
+        <v>174.3742274712787</v>
       </c>
       <c r="R36">
-        <v>4486.062511394101</v>
+        <v>1569.368047241508</v>
       </c>
       <c r="S36">
-        <v>0.05918550208306869</v>
+        <v>0.01838796041819747</v>
       </c>
       <c r="T36">
-        <v>0.06899782611854571</v>
+        <v>0.02128302617050675</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H37">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I37">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J37">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N37">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O37">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P37">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q37">
-        <v>1178.585331059118</v>
+        <v>247.585443677338</v>
       </c>
       <c r="R37">
-        <v>10607.26797953206</v>
+        <v>2228.268993096042</v>
       </c>
       <c r="S37">
-        <v>0.1399437657196549</v>
+        <v>0.02610816635279781</v>
       </c>
       <c r="T37">
-        <v>0.1631449472194559</v>
+        <v>0.0302187287286433</v>
       </c>
     </row>
   </sheetData>
